--- a/BackTest/2020-01-19 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-19 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>628286.8664710487</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>628286.8664710487</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>1095803.875471049</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>1096645.254671049</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>1010745.572571049</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>1009902.328271049</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>1009902.328271049</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>1018125.642271049</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>1016400.623471049</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>1016512.454171049</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>1016380.761171049</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>1185636.629971049</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>1111462.755471049</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>1112272.755471049</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>1288370.462871049</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>1132905.474171049</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>1063500.699871049</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>1049572.292371049</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>876948.1958710488</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>876948.1958710488</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>906948.1958710488</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>844111.9391710488</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>829222.9391710488</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>829222.9391710488</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>824222.9391710488</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>560038.4681710488</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>512038.4681710488</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>510666.0694710488</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3190,15 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3223,15 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,15 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3289,19 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>5.97</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,22 +3326,23 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>5.932</v>
       </c>
       <c r="J89" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K89" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>5.97</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3630,24 +3369,19 @@
       <c r="H90" t="n">
         <v>1</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K90" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L90" t="inlineStr">
+        <v>5.97</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3674,1430 +3408,1218 @@
       <c r="H91" t="n">
         <v>1</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>5.932</v>
       </c>
-      <c r="K91" t="n">
+      <c r="C92" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="D92" t="n">
         <v>5.932</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="E92" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F92" t="n">
+        <v>153221.0991</v>
+      </c>
+      <c r="G92" t="n">
+        <v>589395.6344710488</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5130.3467</v>
+      </c>
+      <c r="G93" t="n">
+        <v>594525.9811710488</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.059</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.059</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1106913.094</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-512387.1128289512</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7217.0261</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-505170.0867289512</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
         <v>5.92</v>
       </c>
-      <c r="D92" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="F92" t="n">
-        <v>153221.0991</v>
-      </c>
-      <c r="G92" t="n">
-        <v>589395.6344710488</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K92" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F96" t="n">
+        <v>43041.6822</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-462128.4045289512</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5.984</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.984</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="F97" t="n">
+        <v>47181.9075</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-509310.3120289512</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F98" t="n">
+        <v>157982.4384</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-351327.8736289513</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8505.7942</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-351327.8736289513</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="F100" t="n">
+        <v>595500</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-351327.8736289513</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="F101" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-241327.8736289513</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="C93" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="D93" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="E93" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="F93" t="n">
-        <v>5130.3467</v>
-      </c>
-      <c r="G93" t="n">
-        <v>594525.9811710488</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K93" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="F102" t="n">
+        <v>369</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-241696.8736289513</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>6.059</v>
-      </c>
-      <c r="C94" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="D94" t="n">
-        <v>6.059</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1106913.094</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-512387.1128289512</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="K94" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="F103" t="n">
+        <v>24334.1585</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-217362.7151289513</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C95" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D95" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E95" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F95" t="n">
-        <v>7217.0261</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-505170.0867289512</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="F104" t="n">
+        <v>72000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-145362.7151289513</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D96" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E96" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F96" t="n">
-        <v>43041.6822</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-462128.4045289512</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="F105" t="n">
+        <v>267849.7563</v>
+      </c>
+      <c r="G105" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5.941</v>
-      </c>
-      <c r="C97" t="n">
-        <v>5.984</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5.984</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.941</v>
-      </c>
-      <c r="F97" t="n">
-        <v>47181.9075</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-509310.3120289512</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="F106" t="n">
+        <v>134979.834</v>
+      </c>
+      <c r="G106" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C98" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F98" t="n">
-        <v>157982.4384</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1124.1227</v>
+      </c>
+      <c r="G107" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="C99" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="D99" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="E99" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8505.7942</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="F108" t="n">
+        <v>54061.2773</v>
+      </c>
+      <c r="G108" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>5.982</v>
-      </c>
-      <c r="C100" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5.982</v>
-      </c>
-      <c r="F100" t="n">
-        <v>595500</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="K100" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="F109" t="n">
+        <v>93155.31540000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="C101" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="E101" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="F101" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-241327.8736289513</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="K101" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.021</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.021</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>111467.5193</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11019.52187104874</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="C102" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="F102" t="n">
-        <v>369</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-241696.8736289513</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="F111" t="n">
+        <v>67294.372</v>
+      </c>
+      <c r="G111" t="n">
+        <v>78313.89387104874</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="C103" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="D103" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="E103" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="F103" t="n">
-        <v>24334.1585</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-217362.7151289513</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="K103" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11243.8884</v>
+      </c>
+      <c r="G112" t="n">
+        <v>78313.89387104874</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="C104" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="D104" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="E104" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="F104" t="n">
-        <v>72000</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-145362.7151289513</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="K104" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14617.055</v>
+      </c>
+      <c r="G113" t="n">
+        <v>78313.89387104874</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="C105" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D105" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E105" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="F105" t="n">
-        <v>267849.7563</v>
-      </c>
-      <c r="G105" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="K105" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="F114" t="n">
+        <v>500</v>
+      </c>
+      <c r="G114" t="n">
+        <v>78813.89387104874</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="C106" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D106" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E106" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="F106" t="n">
-        <v>134979.834</v>
-      </c>
-      <c r="G106" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F115" t="n">
+        <v>200</v>
+      </c>
+      <c r="G115" t="n">
+        <v>78613.89387104874</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="C107" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D107" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E107" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1124.1227</v>
-      </c>
-      <c r="G107" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3859.6643</v>
+      </c>
+      <c r="G116" t="n">
+        <v>78613.89387104874</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="C108" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D108" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E108" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="F108" t="n">
-        <v>54061.2773</v>
-      </c>
-      <c r="G108" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6906.7438</v>
+      </c>
+      <c r="G117" t="n">
+        <v>85520.63767104874</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="C109" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D109" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E109" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="F109" t="n">
-        <v>93155.31540000001</v>
-      </c>
-      <c r="G109" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17794.4493</v>
+      </c>
+      <c r="G118" t="n">
+        <v>103315.0869710487</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>6.021</v>
-      </c>
-      <c r="C110" t="n">
-        <v>6</v>
-      </c>
-      <c r="D110" t="n">
-        <v>6.021</v>
-      </c>
-      <c r="E110" t="n">
-        <v>6</v>
-      </c>
-      <c r="F110" t="n">
-        <v>111467.5193</v>
-      </c>
-      <c r="G110" t="n">
-        <v>11019.52187104874</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3738.0043</v>
+      </c>
+      <c r="G119" t="n">
+        <v>107053.0912710487</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="C111" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="D111" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="E111" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="F111" t="n">
-        <v>67294.372</v>
-      </c>
-      <c r="G111" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.082</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.082</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.082</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.082</v>
+      </c>
+      <c r="F120" t="n">
+        <v>122</v>
+      </c>
+      <c r="G120" t="n">
+        <v>106931.0912710487</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="C112" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="D112" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="E112" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="F112" t="n">
-        <v>11243.8884</v>
-      </c>
-      <c r="G112" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.015</v>
+      </c>
+      <c r="F121" t="n">
+        <v>154.9857</v>
+      </c>
+      <c r="G121" t="n">
+        <v>106776.1055710487</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="C113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="D113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="E113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="F113" t="n">
-        <v>14617.055</v>
-      </c>
-      <c r="G113" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.077</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.077</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.077</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.077</v>
+      </c>
+      <c r="F122" t="n">
+        <v>175.8796</v>
+      </c>
+      <c r="G122" t="n">
+        <v>106951.9851710487</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="C114" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="E114" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="F114" t="n">
-        <v>500</v>
-      </c>
-      <c r="G114" t="n">
-        <v>78813.89387104874</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.076</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.076</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.076</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.076</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16895.2277</v>
+      </c>
+      <c r="G123" t="n">
+        <v>90056.75747104872</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C115" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E115" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F115" t="n">
-        <v>200</v>
-      </c>
-      <c r="G115" t="n">
-        <v>78613.89387104874</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15754.9244</v>
+      </c>
+      <c r="G124" t="n">
+        <v>74301.83307104872</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3859.6643</v>
-      </c>
-      <c r="G116" t="n">
-        <v>78613.89387104874</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="C117" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="E117" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="F117" t="n">
-        <v>6906.7438</v>
-      </c>
-      <c r="G117" t="n">
-        <v>85520.63767104874</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="C118" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="D118" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="E118" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="F118" t="n">
-        <v>17794.4493</v>
-      </c>
-      <c r="G118" t="n">
-        <v>103315.0869710487</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="C119" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D119" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E119" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3738.0043</v>
-      </c>
-      <c r="G119" t="n">
-        <v>107053.0912710487</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>6.082</v>
-      </c>
-      <c r="C120" t="n">
-        <v>6.082</v>
-      </c>
-      <c r="D120" t="n">
-        <v>6.082</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6.082</v>
-      </c>
-      <c r="F120" t="n">
-        <v>122</v>
-      </c>
-      <c r="G120" t="n">
-        <v>106931.0912710487</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>6.015</v>
-      </c>
-      <c r="C121" t="n">
-        <v>6.015</v>
-      </c>
-      <c r="D121" t="n">
-        <v>6.015</v>
-      </c>
-      <c r="E121" t="n">
-        <v>6.015</v>
-      </c>
-      <c r="F121" t="n">
-        <v>154.9857</v>
-      </c>
-      <c r="G121" t="n">
-        <v>106776.1055710487</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>6.077</v>
-      </c>
-      <c r="C122" t="n">
-        <v>6.077</v>
-      </c>
-      <c r="D122" t="n">
-        <v>6.077</v>
-      </c>
-      <c r="E122" t="n">
-        <v>6.077</v>
-      </c>
-      <c r="F122" t="n">
-        <v>175.8796</v>
-      </c>
-      <c r="G122" t="n">
-        <v>106951.9851710487</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>6.076</v>
-      </c>
-      <c r="C123" t="n">
-        <v>6.076</v>
-      </c>
-      <c r="D123" t="n">
-        <v>6.076</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6.076</v>
-      </c>
-      <c r="F123" t="n">
-        <v>16895.2277</v>
-      </c>
-      <c r="G123" t="n">
-        <v>90056.75747104872</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>6.075</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.075</v>
-      </c>
-      <c r="D124" t="n">
-        <v>6.075</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6.075</v>
-      </c>
-      <c r="F124" t="n">
-        <v>15754.9244</v>
-      </c>
-      <c r="G124" t="n">
-        <v>74301.83307104872</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5122,24 +4644,17 @@
         <v>46746.83307104872</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5164,24 +4679,19 @@
         <v>46242.59057104872</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>6.019</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5206,24 +4716,23 @@
         <v>50390.41667104872</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L127" t="inlineStr">
+        <v>6.018</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5248,26 +4757,25 @@
         <v>68390.41667104872</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="L128" t="inlineStr">
+        <v>6.067</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-19 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>628286.8664710487</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>628286.8664710487</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>628286.8664710487</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>628286.8664710487</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>1095803.875471049</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1096645.254671049</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1010745.572571049</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1009902.328271049</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1009902.328271049</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1004920.342271049</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>979125.6422710487</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>985125.6422710487</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1018125.642271049</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1016400.623471049</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1016512.454171049</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1016380.761171049</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>1185636.629971049</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1111462.755471049</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1112462.755471049</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1112272.755471049</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1288370.462871049</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1146990.556571049</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1132905.474171049</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1063500.699871049</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1049572.292371049</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>876948.1958710488</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>876948.1958710488</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>906948.1958710488</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>844111.9391710488</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>829222.9391710488</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>829222.9391710488</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>824222.9391710488</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>608038.4681710488</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>608038.4681710488</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>560038.4681710488</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>560038.4681710488</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>512038.4681710488</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>510666.0694710488</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3291,12 +3291,8 @@
       <c r="H88" t="n">
         <v>2</v>
       </c>
-      <c r="I88" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5.97</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3328,17 +3324,9 @@
       <c r="H89" t="n">
         <v>2</v>
       </c>
-      <c r="I89" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="J89" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3367,17 +3355,11 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3406,7 +3388,7 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3439,7 +3421,7 @@
         <v>589395.6344710488</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3474,12 +3456,8 @@
       <c r="H93" t="n">
         <v>2</v>
       </c>
-      <c r="I93" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J93" t="n">
-        <v>5.92</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3511,17 +3489,9 @@
       <c r="H94" t="n">
         <v>2</v>
       </c>
-      <c r="I94" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="J94" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3550,17 +3520,11 @@
         <v>-505170.0867289512</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3754,17 +3718,11 @@
         <v>-241327.8736289513</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6.008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3834,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3867,15 +3817,11 @@
         <v>-145362.7151289513</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3908,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4167,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4204,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4352,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4389,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4426,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4463,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4500,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4537,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4574,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4611,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4644,16 +4510,14 @@
         <v>46746.83307104872</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
       <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -4679,14 +4543,10 @@
         <v>46242.59057104872</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="J126" t="n">
-        <v>6.019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
@@ -4716,19 +4576,15 @@
         <v>50390.41667104872</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>6.018</v>
       </c>
       <c r="J127" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6.018</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4757,13 +4613,13 @@
         <v>68390.41667104872</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>6.067</v>
       </c>
       <c r="J128" t="n">
-        <v>6.019</v>
+        <v>6.018</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4776,6 +4632,6 @@
       <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-19 BackTest ZIL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>825778.7615846961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>929132.5871846961</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>601595.3270846962</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>628286.8664710487</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>628286.8664710487</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1002975.815771049</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1004920.342271049</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>979125.6422710487</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>985125.6422710487</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1018125.642271049</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1016512.454171049</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1016380.761171049</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1111462.755471049</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1288370.462871049</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1146990.556571049</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1132905.474171049</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1063500.699871049</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1049572.292371049</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>876948.1958710488</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>876948.1958710488</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>906948.1958710488</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>844111.9391710488</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>829222.9391710488</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>829222.9391710488</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>824222.9391710488</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>608038.4681710488</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>608038.4681710488</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>560038.4681710488</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>560038.4681710488</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>512038.4681710488</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>510666.0694710488</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>862616.7335710488</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,10 +3322,14 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5.932</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3355,11 +3359,19 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3400,19 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="J91" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3441,19 @@
         <v>589395.6344710488</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3482,19 @@
         <v>594525.9811710488</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3523,17 @@
         <v>-512387.1128289512</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3562,17 @@
         <v>-505170.0867289512</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3604,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3643,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3682,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3721,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3760,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3799,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3838,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3877,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3916,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3955,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3994,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4033,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4072,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4111,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4150,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4189,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4228,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4267,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4306,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4423,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4501,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4540,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4579,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4618,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,13 +4654,19 @@
         <v>90056.75747104872</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>1.019275118004046</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
@@ -4477,7 +4693,7 @@
         <v>74301.83307104872</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4726,7 @@
         <v>46746.83307104872</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4759,7 @@
         <v>46242.59057104872</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,14 +4792,10 @@
         <v>50390.41667104872</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.018</v>
-      </c>
-      <c r="J127" t="n">
-        <v>6.018</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4613,25 +4825,17 @@
         <v>68390.41667104872</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6.067</v>
-      </c>
-      <c r="J128" t="n">
-        <v>6.018</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-19 BackTest ZIL.xlsx
@@ -451,7 +451,7 @@
         <v>825778.7615846961</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>913778.7615846961</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>929132.5871846961</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>601595.3270846962</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>1002975.815771049</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1010745.572571049</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1004920.342271049</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1004920.342271049</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>979125.6422710487</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>985125.6422710487</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1018125.642271049</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1016400.623471049</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>988663.7611710489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>1172482.164571049</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>1183818.542771049</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1170434.564471049</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1118462.755471049</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1112462.755471049</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1112272.755471049</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1123498.342371049</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1288253.957771049</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>1288370.462871049</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>1146990.556571049</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1152990.556571049</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1122990.556571049</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1132905.474171049</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1073654.437871049</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1063500.699871049</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3322,14 +3322,10 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="J89" t="n">
-        <v>5.932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3359,1156 +3355,1016 @@
         <v>742616.7335710488</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
         <v>5.932</v>
       </c>
-      <c r="J90" t="n">
+      <c r="C91" t="n">
         <v>5.932</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="D91" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5130.3467</v>
+      </c>
+      <c r="G91" t="n">
+        <v>742616.7335710488</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.932</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="F92" t="n">
+        <v>153221.0991</v>
+      </c>
+      <c r="G92" t="n">
+        <v>589395.6344710488</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="C93" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.993</v>
+      </c>
+      <c r="F93" t="n">
+        <v>5130.3467</v>
+      </c>
+      <c r="G93" t="n">
+        <v>594525.9811710488</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.059</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.059</v>
+      </c>
+      <c r="E94" t="n">
+        <v>5.971</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1106913.094</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-512387.1128289512</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7217.0261</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-505170.0867289512</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F96" t="n">
+        <v>43041.6822</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-462128.4045289512</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="C97" t="n">
+        <v>5.984</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.984</v>
+      </c>
+      <c r="E97" t="n">
+        <v>5.941</v>
+      </c>
+      <c r="F97" t="n">
+        <v>47181.9075</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-509310.3120289512</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F98" t="n">
+        <v>157982.4384</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-351327.8736289513</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8505.7942</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-351327.8736289513</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="D100" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="F100" t="n">
+        <v>595500</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-351327.8736289513</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="E101" t="n">
+        <v>6.008</v>
+      </c>
+      <c r="F101" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-241327.8736289513</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="D102" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5.991</v>
+      </c>
+      <c r="F102" t="n">
+        <v>369</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-241696.8736289513</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="D103" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="E103" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="F103" t="n">
+        <v>24334.1585</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-217362.7151289513</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="E104" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="F104" t="n">
+        <v>72000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-145362.7151289513</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.057</v>
+      </c>
+      <c r="F105" t="n">
+        <v>267849.7563</v>
+      </c>
+      <c r="G105" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="F106" t="n">
+        <v>134979.834</v>
+      </c>
+      <c r="G106" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1124.1227</v>
+      </c>
+      <c r="G107" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="F108" t="n">
+        <v>54061.2773</v>
+      </c>
+      <c r="G108" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6.068</v>
+      </c>
+      <c r="F109" t="n">
+        <v>93155.31540000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>122487.0411710487</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.021</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.021</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6</v>
+      </c>
+      <c r="F110" t="n">
+        <v>111467.5193</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11019.52187104874</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="F111" t="n">
+        <v>67294.372</v>
+      </c>
+      <c r="G111" t="n">
+        <v>78313.89387104874</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11243.8884</v>
+      </c>
+      <c r="G112" t="n">
+        <v>78313.89387104874</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14617.055</v>
+      </c>
+      <c r="G113" t="n">
+        <v>78313.89387104874</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="F114" t="n">
+        <v>500</v>
+      </c>
+      <c r="G114" t="n">
+        <v>78813.89387104874</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="C91" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="D91" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="E91" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="F91" t="n">
-        <v>5130.3467</v>
-      </c>
-      <c r="G91" t="n">
-        <v>742616.7335710488</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K91" t="inlineStr">
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F115" t="n">
+        <v>200</v>
+      </c>
+      <c r="G115" t="n">
+        <v>78613.89387104874</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="C92" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="D92" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="E92" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="F92" t="n">
-        <v>153221.0991</v>
-      </c>
-      <c r="G92" t="n">
-        <v>589395.6344710488</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="J92" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K92" t="inlineStr">
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3859.6643</v>
+      </c>
+      <c r="G116" t="n">
+        <v>78613.89387104874</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6906.7438</v>
+      </c>
+      <c r="G117" t="n">
+        <v>85520.63767104874</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J117" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="F118" t="n">
+        <v>17794.4493</v>
+      </c>
+      <c r="G118" t="n">
+        <v>103315.0869710487</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>6.014</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3738.0043</v>
+      </c>
+      <c r="G119" t="n">
+        <v>107053.0912710487</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>6.073</v>
+      </c>
+      <c r="J119" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="C93" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="D93" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="E93" t="n">
-        <v>5.993</v>
-      </c>
-      <c r="F93" t="n">
-        <v>5130.3467</v>
-      </c>
-      <c r="G93" t="n">
-        <v>594525.9811710488</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J93" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>6.059</v>
-      </c>
-      <c r="C94" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="D94" t="n">
-        <v>6.059</v>
-      </c>
-      <c r="E94" t="n">
-        <v>5.971</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1106913.094</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-512387.1128289512</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C95" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D95" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E95" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F95" t="n">
-        <v>7217.0261</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-505170.0867289512</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C96" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D96" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E96" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F96" t="n">
-        <v>43041.6822</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-462128.4045289512</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5.941</v>
-      </c>
-      <c r="C97" t="n">
-        <v>5.984</v>
-      </c>
-      <c r="D97" t="n">
-        <v>5.984</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5.941</v>
-      </c>
-      <c r="F97" t="n">
-        <v>47181.9075</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-509310.3120289512</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C98" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="D98" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F98" t="n">
-        <v>157982.4384</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="C99" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="D99" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="E99" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8505.7942</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>5.982</v>
-      </c>
-      <c r="C100" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="D100" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="E100" t="n">
-        <v>5.982</v>
-      </c>
-      <c r="F100" t="n">
-        <v>595500</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="C101" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="D101" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="E101" t="n">
-        <v>6.008</v>
-      </c>
-      <c r="F101" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-241327.8736289513</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="C102" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="E102" t="n">
-        <v>5.991</v>
-      </c>
-      <c r="F102" t="n">
-        <v>369</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-241696.8736289513</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="C103" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="D103" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="E103" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="F103" t="n">
-        <v>24334.1585</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-217362.7151289513</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="C104" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="D104" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="E104" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="F104" t="n">
-        <v>72000</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-145362.7151289513</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="C105" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D105" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E105" t="n">
-        <v>6.057</v>
-      </c>
-      <c r="F105" t="n">
-        <v>267849.7563</v>
-      </c>
-      <c r="G105" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="C106" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D106" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E106" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="F106" t="n">
-        <v>134979.834</v>
-      </c>
-      <c r="G106" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="C107" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D107" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E107" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1124.1227</v>
-      </c>
-      <c r="G107" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="C108" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D108" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E108" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="F108" t="n">
-        <v>54061.2773</v>
-      </c>
-      <c r="G108" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="C109" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="D109" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="E109" t="n">
-        <v>6.068</v>
-      </c>
-      <c r="F109" t="n">
-        <v>93155.31540000001</v>
-      </c>
-      <c r="G109" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>6.021</v>
-      </c>
-      <c r="C110" t="n">
-        <v>6</v>
-      </c>
-      <c r="D110" t="n">
-        <v>6.021</v>
-      </c>
-      <c r="E110" t="n">
-        <v>6</v>
-      </c>
-      <c r="F110" t="n">
-        <v>111467.5193</v>
-      </c>
-      <c r="G110" t="n">
-        <v>11019.52187104874</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="C111" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="D111" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="E111" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="F111" t="n">
-        <v>67294.372</v>
-      </c>
-      <c r="G111" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="C112" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="D112" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="E112" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="F112" t="n">
-        <v>11243.8884</v>
-      </c>
-      <c r="G112" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="C113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="D113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="E113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="F113" t="n">
-        <v>14617.055</v>
-      </c>
-      <c r="G113" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="C114" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="E114" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="F114" t="n">
-        <v>500</v>
-      </c>
-      <c r="G114" t="n">
-        <v>78813.89387104874</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C115" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E115" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F115" t="n">
-        <v>200</v>
-      </c>
-      <c r="G115" t="n">
-        <v>78613.89387104874</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F116" t="n">
-        <v>3859.6643</v>
-      </c>
-      <c r="G116" t="n">
-        <v>78613.89387104874</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="C117" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="E117" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="F117" t="n">
-        <v>6906.7438</v>
-      </c>
-      <c r="G117" t="n">
-        <v>85520.63767104874</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="C118" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="D118" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="E118" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="F118" t="n">
-        <v>17794.4493</v>
-      </c>
-      <c r="G118" t="n">
-        <v>103315.0869710487</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="C119" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D119" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E119" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3738.0043</v>
-      </c>
-      <c r="G119" t="n">
-        <v>107053.0912710487</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5.932</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4541,7 +4397,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5.932</v>
+        <v>6.01</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4576,11 +4432,13 @@
         <v>106776.1055710487</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6.082</v>
+      </c>
       <c r="J121" t="n">
-        <v>5.932</v>
+        <v>6.01</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4615,11 +4473,13 @@
         <v>106951.9851710487</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6.015</v>
+      </c>
       <c r="J122" t="n">
-        <v>5.932</v>
+        <v>6.01</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4654,19 +4514,21 @@
         <v>90056.75747104872</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6.077</v>
+      </c>
       <c r="J123" t="n">
-        <v>5.932</v>
+        <v>6.01</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.019275118004046</v>
+        <v>1</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
@@ -4693,11 +4555,17 @@
         <v>74301.83307104872</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4726,11 +4594,19 @@
         <v>46746.83307104872</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>6.075</v>
+      </c>
+      <c r="J125" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +4635,19 @@
         <v>46242.59057104872</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.019</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4792,11 +4676,19 @@
         <v>50390.41667104872</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6.018</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4825,11 +4717,19 @@
         <v>68390.41667104872</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.067</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-19 BackTest ZIL.xlsx
+++ b/BackTest/2020-01-19 BackTest ZIL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>6872.6235</v>
       </c>
       <c r="G2" t="n">
-        <v>825778.7615846961</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>88000</v>
       </c>
       <c r="G3" t="n">
-        <v>913778.7615846961</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>23500</v>
       </c>
       <c r="G4" t="n">
-        <v>913778.7615846961</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>55500</v>
       </c>
       <c r="G5" t="n">
-        <v>913778.7615846961</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>15353.8256</v>
       </c>
       <c r="G6" t="n">
-        <v>929132.5871846961</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>327537.2601</v>
       </c>
       <c r="G7" t="n">
-        <v>601595.3270846962</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>89872.15798635255</v>
       </c>
       <c r="G8" t="n">
-        <v>691467.4850710487</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>62251.0363</v>
       </c>
       <c r="G9" t="n">
-        <v>629216.4487710487</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>60929.5823</v>
       </c>
       <c r="G10" t="n">
-        <v>568286.8664710487</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>70336.69530000001</v>
       </c>
       <c r="G11" t="n">
-        <v>568286.8664710487</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>60000</v>
       </c>
       <c r="G12" t="n">
-        <v>628286.8664710487</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>30000</v>
       </c>
       <c r="G13" t="n">
-        <v>628286.8664710487</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>12057.387</v>
       </c>
       <c r="G14" t="n">
-        <v>628286.8664710487</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>124.6068</v>
       </c>
       <c r="G15" t="n">
-        <v>628286.8664710487</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>11379.7752</v>
       </c>
       <c r="G16" t="n">
-        <v>616907.0912710486</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>586907.0912710486</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4578.5752</v>
       </c>
       <c r="G18" t="n">
-        <v>582328.5160710487</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>570773.4051</v>
       </c>
       <c r="G19" t="n">
-        <v>1153101.921171049</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>30000</v>
       </c>
       <c r="G20" t="n">
-        <v>1123101.921171049</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>120126.1054</v>
       </c>
       <c r="G21" t="n">
-        <v>1002975.815771049</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>89872.158</v>
       </c>
       <c r="G22" t="n">
-        <v>1092847.973771049</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2955.9017</v>
       </c>
       <c r="G23" t="n">
-        <v>1095803.875471049</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>841.3792</v>
       </c>
       <c r="G24" t="n">
-        <v>1096645.254671049</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>115582.0012</v>
       </c>
       <c r="G25" t="n">
-        <v>981063.2534710488</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>29682.3191</v>
       </c>
       <c r="G26" t="n">
-        <v>1010745.572571049</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>843.2443</v>
       </c>
       <c r="G27" t="n">
-        <v>1009902.328271049</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>8149.5591</v>
       </c>
       <c r="G28" t="n">
-        <v>1009902.328271049</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>4981.986</v>
       </c>
       <c r="G29" t="n">
-        <v>1004920.342271049</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>12800.311</v>
       </c>
       <c r="G30" t="n">
-        <v>1004920.342271049</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>25794.7</v>
       </c>
       <c r="G31" t="n">
-        <v>979125.6422710487</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>6000</v>
       </c>
       <c r="G32" t="n">
-        <v>985125.6422710487</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>33000</v>
       </c>
       <c r="G33" t="n">
-        <v>1018125.642271049</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1725.0188</v>
       </c>
       <c r="G34" t="n">
-        <v>1016400.623471049</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>111.8307</v>
       </c>
       <c r="G35" t="n">
-        <v>1016512.454171049</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>131.693</v>
       </c>
       <c r="G36" t="n">
-        <v>1016380.761171049</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>27717</v>
       </c>
       <c r="G37" t="n">
-        <v>988663.7611710489</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>34235.5162</v>
       </c>
       <c r="G38" t="n">
-        <v>1022899.277371049</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>24000</v>
       </c>
       <c r="G39" t="n">
-        <v>1046899.277371049</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>154813.3145</v>
       </c>
       <c r="G40" t="n">
-        <v>1201712.591871049</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>16075.9619</v>
       </c>
       <c r="G41" t="n">
-        <v>1185636.629971049</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>13154.4654</v>
       </c>
       <c r="G42" t="n">
-        <v>1172482.164571049</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>11336.3782</v>
       </c>
       <c r="G43" t="n">
-        <v>1183818.542771049</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>13383.9783</v>
       </c>
       <c r="G44" t="n">
-        <v>1170434.564471049</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>6850.1462</v>
       </c>
       <c r="G45" t="n">
-        <v>1170434.564471049</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>25284.2295</v>
       </c>
       <c r="G46" t="n">
-        <v>1170434.564471049</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>51971.809</v>
       </c>
       <c r="G47" t="n">
-        <v>1118462.755471049</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>11788.5264</v>
       </c>
       <c r="G48" t="n">
-        <v>1118462.755471049</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>7000</v>
       </c>
       <c r="G49" t="n">
-        <v>1111462.755471049</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1000</v>
       </c>
       <c r="G50" t="n">
-        <v>1112462.755471049</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>190</v>
       </c>
       <c r="G51" t="n">
-        <v>1112272.755471049</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>11225.5869</v>
       </c>
       <c r="G52" t="n">
-        <v>1123498.342371049</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>14429.2399</v>
       </c>
       <c r="G53" t="n">
-        <v>1123498.342371049</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>96469.5325</v>
       </c>
       <c r="G54" t="n">
-        <v>1123498.342371049</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>164755.6154</v>
       </c>
       <c r="G55" t="n">
-        <v>1288253.957771049</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>6965.7617</v>
       </c>
       <c r="G56" t="n">
-        <v>1288253.957771049</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1818</v>
       </c>
       <c r="G57" t="n">
-        <v>1288253.957771049</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>116.5051</v>
       </c>
       <c r="G58" t="n">
-        <v>1288370.462871049</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>141379.9063</v>
       </c>
       <c r="G59" t="n">
-        <v>1146990.556571049</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>6000</v>
       </c>
       <c r="G60" t="n">
-        <v>1152990.556571049</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>50500</v>
       </c>
       <c r="G61" t="n">
-        <v>1152990.556571049</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>30000</v>
       </c>
       <c r="G62" t="n">
-        <v>1122990.556571049</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>30000</v>
       </c>
       <c r="G63" t="n">
-        <v>1122990.556571049</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>69875.22659999999</v>
       </c>
       <c r="G64" t="n">
-        <v>1122990.556571049</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>38663.9064</v>
       </c>
       <c r="G65" t="n">
-        <v>1122990.556571049</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>9914.917600000001</v>
       </c>
       <c r="G66" t="n">
-        <v>1132905.474171049</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>59251.0363</v>
       </c>
       <c r="G67" t="n">
-        <v>1073654.437871049</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>95500</v>
       </c>
       <c r="G68" t="n">
-        <v>1073654.437871049</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>303.0269</v>
       </c>
       <c r="G69" t="n">
-        <v>1073654.437871049</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>10153.738</v>
       </c>
       <c r="G70" t="n">
-        <v>1063500.699871049</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>13928.4075</v>
       </c>
       <c r="G71" t="n">
-        <v>1049572.292371049</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>172624.0965</v>
       </c>
       <c r="G72" t="n">
-        <v>876948.1958710488</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>136387.8965</v>
       </c>
       <c r="G73" t="n">
-        <v>876948.1958710488</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>30000</v>
       </c>
       <c r="G74" t="n">
-        <v>906948.1958710488</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>62836.2567</v>
       </c>
       <c r="G75" t="n">
-        <v>844111.9391710488</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>14889</v>
       </c>
       <c r="G76" t="n">
-        <v>829222.9391710488</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>23655.461</v>
       </c>
       <c r="G77" t="n">
-        <v>829222.9391710488</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>5000</v>
       </c>
       <c r="G78" t="n">
-        <v>824222.9391710488</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>216184.471</v>
       </c>
       <c r="G79" t="n">
-        <v>608038.4681710488</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>240000</v>
       </c>
       <c r="G80" t="n">
-        <v>608038.4681710488</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>48000</v>
       </c>
       <c r="G81" t="n">
-        <v>560038.4681710488</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>123000</v>
       </c>
       <c r="G82" t="n">
-        <v>560038.4681710488</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>48000</v>
       </c>
       <c r="G83" t="n">
-        <v>512038.4681710488</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1372.3987</v>
       </c>
       <c r="G84" t="n">
-        <v>510666.0694710488</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>351950.6641</v>
       </c>
       <c r="G85" t="n">
-        <v>862616.7335710488</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>284000</v>
       </c>
       <c r="G86" t="n">
-        <v>862616.7335710488</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>151478.1842</v>
       </c>
       <c r="G87" t="n">
-        <v>862616.7335710488</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>120000</v>
       </c>
       <c r="G88" t="n">
-        <v>742616.7335710488</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>43000</v>
       </c>
       <c r="G89" t="n">
-        <v>742616.7335710488</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>7022.0197</v>
       </c>
       <c r="G90" t="n">
-        <v>742616.7335710488</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>5130.3467</v>
       </c>
       <c r="G91" t="n">
-        <v>742616.7335710488</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,21 @@
         <v>153221.0991</v>
       </c>
       <c r="G92" t="n">
-        <v>589395.6344710488</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>5.932</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3179,21 @@
         <v>5130.3467</v>
       </c>
       <c r="G93" t="n">
-        <v>594525.9811710488</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>5.92</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3215,21 @@
         <v>1106913.094</v>
       </c>
       <c r="G94" t="n">
-        <v>-512387.1128289512</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>5.993</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3251,21 @@
         <v>7217.0261</v>
       </c>
       <c r="G95" t="n">
-        <v>-505170.0867289512</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>5.971</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3287,21 @@
         <v>43041.6822</v>
       </c>
       <c r="G96" t="n">
-        <v>-462128.4045289512</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>5.98</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3323,21 @@
         <v>47181.9075</v>
       </c>
       <c r="G97" t="n">
-        <v>-509310.3120289512</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3359,19 @@
         <v>157982.4384</v>
       </c>
       <c r="G98" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3393,19 @@
         <v>8505.7942</v>
       </c>
       <c r="G99" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3427,19 @@
         <v>595500</v>
       </c>
       <c r="G100" t="n">
-        <v>-351327.8736289513</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3461,19 @@
         <v>110000</v>
       </c>
       <c r="G101" t="n">
-        <v>-241327.8736289513</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3495,19 @@
         <v>369</v>
       </c>
       <c r="G102" t="n">
-        <v>-241696.8736289513</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3529,19 @@
         <v>24334.1585</v>
       </c>
       <c r="G103" t="n">
-        <v>-217362.7151289513</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3563,19 @@
         <v>72000</v>
       </c>
       <c r="G104" t="n">
-        <v>-145362.7151289513</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3597,19 @@
         <v>267849.7563</v>
       </c>
       <c r="G105" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3631,19 @@
         <v>134979.834</v>
       </c>
       <c r="G106" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3665,19 @@
         <v>1124.1227</v>
       </c>
       <c r="G107" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3699,17 @@
         <v>54061.2773</v>
       </c>
       <c r="G108" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3731,15 @@
         <v>93155.31540000001</v>
       </c>
       <c r="G109" t="n">
-        <v>122487.0411710487</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3761,15 @@
         <v>111467.5193</v>
       </c>
       <c r="G110" t="n">
-        <v>11019.52187104874</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3791,15 @@
         <v>67294.372</v>
       </c>
       <c r="G111" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3821,15 @@
         <v>11243.8884</v>
       </c>
       <c r="G112" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,22 +3851,15 @@
         <v>14617.055</v>
       </c>
       <c r="G113" t="n">
-        <v>78313.89387104874</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="J113" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4148,26 +3881,15 @@
         <v>500</v>
       </c>
       <c r="G114" t="n">
-        <v>78813.89387104874</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="J114" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4189,26 +3911,15 @@
         <v>200</v>
       </c>
       <c r="G115" t="n">
-        <v>78613.89387104874</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6.062</v>
-      </c>
-      <c r="J115" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4230,22 +3941,15 @@
         <v>3859.6643</v>
       </c>
       <c r="G116" t="n">
-        <v>78613.89387104874</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J116" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4267,26 +3971,15 @@
         <v>6906.7438</v>
       </c>
       <c r="G117" t="n">
-        <v>85520.63767104874</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J117" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4308,26 +4001,15 @@
         <v>17794.4493</v>
       </c>
       <c r="G118" t="n">
-        <v>103315.0869710487</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>6.014</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4349,26 +4031,15 @@
         <v>3738.0043</v>
       </c>
       <c r="G119" t="n">
-        <v>107053.0912710487</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>6.073</v>
-      </c>
-      <c r="J119" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4390,24 +4061,15 @@
         <v>122</v>
       </c>
       <c r="G120" t="n">
-        <v>106931.0912710487</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4429,26 +4091,15 @@
         <v>154.9857</v>
       </c>
       <c r="G121" t="n">
-        <v>106776.1055710487</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>6.082</v>
-      </c>
-      <c r="J121" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4470,26 +4121,15 @@
         <v>175.8796</v>
       </c>
       <c r="G122" t="n">
-        <v>106951.9851710487</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>6.015</v>
-      </c>
-      <c r="J122" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4511,26 +4151,15 @@
         <v>16895.2277</v>
       </c>
       <c r="G123" t="n">
-        <v>90056.75747104872</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.077</v>
-      </c>
-      <c r="J123" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4552,24 +4181,15 @@
         <v>15754.9244</v>
       </c>
       <c r="G124" t="n">
-        <v>74301.83307104872</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4591,26 +4211,15 @@
         <v>27555</v>
       </c>
       <c r="G125" t="n">
-        <v>46746.83307104872</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>6.075</v>
-      </c>
-      <c r="J125" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4632,26 +4241,15 @@
         <v>504.2425</v>
       </c>
       <c r="G126" t="n">
-        <v>46242.59057104872</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>6.019</v>
-      </c>
-      <c r="J126" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4673,26 +4271,15 @@
         <v>4147.8261</v>
       </c>
       <c r="G127" t="n">
-        <v>50390.41667104872</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.018</v>
-      </c>
-      <c r="J127" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4714,26 +4301,15 @@
         <v>18000</v>
       </c>
       <c r="G128" t="n">
-        <v>68390.41667104872</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6.067</v>
-      </c>
-      <c r="J128" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
